--- a/summary/precision_summary.xlsx
+++ b/summary/precision_summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijiechu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijiechu/Documents/essay_pythons/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,32 +437,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -477,15 +477,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" s="4">
+      <c r="C4">
+        <v>0.79318239999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.79071619999999998</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.95099999999999996</v>
       </c>
       <c r="F4">
@@ -493,13 +497,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" s="4">
+      <c r="C5">
+        <v>0.78846156999999994</v>
+      </c>
+      <c r="D5">
+        <v>0.7820513</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.91900000000000004</v>
       </c>
       <c r="F5">
@@ -507,13 +515,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" s="4">
+      <c r="C6">
+        <v>0.79707205000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.80780779999999996</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.92500000000000004</v>
       </c>
       <c r="F6">
@@ -521,13 +533,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" s="4">
+      <c r="C7">
+        <v>0.76423909999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.77964520000000004</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.93600000000000005</v>
       </c>
       <c r="F7">
@@ -535,13 +551,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" s="4">
+      <c r="C8">
+        <v>0.79358620000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.79900629999999995</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.92600000000000005</v>
       </c>
       <c r="F8">
@@ -549,13 +569,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="4">
+      <c r="C9">
+        <v>0.79739444999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.78032345000000003</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.93400000000000005</v>
       </c>
       <c r="F9">
@@ -563,13 +587,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="4">
+      <c r="C10">
+        <v>0.80216799999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.79403800000000002</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.93400000000000005</v>
       </c>
       <c r="F10">
@@ -577,13 +605,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="4">
+      <c r="C11">
+        <v>0.77959920000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.73330289999999998</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.95299999999999996</v>
       </c>
       <c r="F11">
@@ -591,13 +623,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" s="4">
+      <c r="C12">
+        <v>0.82234436</v>
+      </c>
+      <c r="D12">
+        <v>0.80540290000000003</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.95099999999999996</v>
       </c>
       <c r="F12">
@@ -605,13 +641,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="4">
+      <c r="C13">
+        <v>0.78838956000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.81039333000000002</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.95299999999999996</v>
       </c>
       <c r="F13">
@@ -619,12 +659,18 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:D14" si="0">AVERAGE(C4:C13)</f>
+        <v>0.79264368899999993</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78826873799999997</v>
+      </c>
       <c r="E14" s="1">
         <f>AVERAGE(E4:E13)</f>
         <v>0.93819999999999992</v>
@@ -635,7 +681,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
@@ -651,7 +697,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -665,7 +711,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -679,7 +725,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
@@ -693,7 +739,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -707,7 +753,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
@@ -721,7 +767,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
@@ -735,7 +781,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
@@ -749,7 +795,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
@@ -763,7 +809,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
@@ -777,7 +823,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>

--- a/summary/precision_summary.xlsx
+++ b/summary/precision_summary.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E15" sqref="E15:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,16 +484,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.79318239999999995</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="D4">
-        <v>0.79071619999999998</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E4" s="3">
-        <v>0.95099999999999996</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="F4">
-        <v>0.93500000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -502,16 +502,16 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.78846156999999994</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D5">
-        <v>0.7820513</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="E5" s="3">
-        <v>0.91900000000000004</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="F5">
-        <v>0.91600000000000004</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -520,16 +520,16 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.79707205000000003</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="D6">
-        <v>0.80780779999999996</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="E6" s="3">
-        <v>0.92500000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F6">
-        <v>0.94599999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -538,16 +538,16 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.76423909999999995</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D7">
-        <v>0.77964520000000004</v>
+        <v>0.78</v>
       </c>
       <c r="E7" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F7">
-        <v>0.92</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,16 +556,16 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.79358620000000002</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="D8">
-        <v>0.79900629999999995</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E8" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="F8">
-        <v>0.91800000000000004</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -574,16 +574,16 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.79739444999999998</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="D9">
-        <v>0.78032345000000003</v>
+        <v>0.78</v>
       </c>
       <c r="E9" s="3">
-        <v>0.93400000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="F9">
-        <v>0.91200000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -592,16 +592,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.80216799999999999</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="D10">
-        <v>0.79403800000000002</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="E10" s="3">
-        <v>0.93400000000000005</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="F10">
-        <v>0.95099999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -610,16 +610,16 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.77959920000000005</v>
+        <v>0.78</v>
       </c>
       <c r="D11">
-        <v>0.73330289999999998</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E11" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F11">
-        <v>0.94299999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.82234436</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="D12">
-        <v>0.80540290000000003</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E12" s="3">
-        <v>0.95099999999999996</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="F12">
-        <v>0.93600000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -646,16 +646,16 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.78838956000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D13">
-        <v>0.81039333000000002</v>
+        <v>0.81</v>
       </c>
       <c r="E13" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F13">
-        <v>0.94299999999999995</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -665,19 +665,19 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:D14" si="0">AVERAGE(C4:C13)</f>
-        <v>0.79264368899999993</v>
+        <v>0.79250000000000009</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.78826873799999997</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="E14" s="1">
         <f>AVERAGE(E4:E13)</f>
-        <v>0.93819999999999992</v>
+        <v>0.93280000000000007</v>
       </c>
       <c r="F14" s="1">
         <f>AVERAGE(F4:F13)</f>
-        <v>0.93199999999999983</v>
+        <v>0.92759999999999976</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15">
-        <v>0.96</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F15">
         <v>0.94399999999999995</v>
@@ -760,7 +760,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20">
-        <v>0.94699999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="F20">
         <v>0.93899999999999995</v>
@@ -831,7 +831,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2">
         <f>AVERAGE(E15:E24)</f>
-        <v>0.95119999999999982</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="F25" s="2">
         <f>AVERAGE(F15:F24)</f>

--- a/summary/precision_summary.xlsx
+++ b/summary/precision_summary.xlsx
@@ -92,10 +92,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,8 +136,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,7 +422,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,32 +436,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -477,358 +476,404 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.79300000000000004</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.79100000000000004</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.94499999999999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.78200000000000003</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.80800000000000005</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.92</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.78</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.93</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.79400000000000004</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.79900000000000004</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.92</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.78</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.93</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.78</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.73299999999999998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.80500000000000005</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.81</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:D14" si="0">AVERAGE(C4:C13)</f>
         <v>0.79250000000000009</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>0.78820000000000001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f>AVERAGE(E4:E13)</f>
         <v>0.93280000000000007</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <f>AVERAGE(F4:F13)</f>
         <v>0.92759999999999976</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15">
+      <c r="C15" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.95899999999999996</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16">
+      <c r="C16" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17">
+      <c r="C17" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18">
+      <c r="C18" s="2">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.95</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19">
+      <c r="C19" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20">
+      <c r="C20" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21">
+      <c r="C21" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22">
+      <c r="C22" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23">
+      <c r="C23" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.95299999999999996</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24">
+      <c r="C24" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.96099999999999997</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:D25" si="1">AVERAGE(C15:C24)</f>
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92960000000000009</v>
+      </c>
       <c r="E25" s="2">
         <f>AVERAGE(E15:E24)</f>
         <v>0.95099999999999996</v>
